--- a/tools/KnowledgeBase2RapiseDoc/Main.rvl.xlsx
+++ b/tools/KnowledgeBase2RapiseDoc/Main.rvl.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="RVL" sheetId="1" r:id="rId2"/>
+    <sheet name="LoadArticle" sheetId="2" r:id="rId4"/>
+    <sheet name="ProcessTopics" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="442" uniqueCount="85">
   <si>
     <t>Flow</t>
   </si>
@@ -76,12 +78,204 @@
   </si>
   <si>
     <t>python ../kb.py</t>
+  </si>
+  <si>
+    <t>https://www.inflectra.com/Support/KnowledgeBase/KB790.aspx</t>
+  </si>
+  <si>
+    <t>DOMFindByXPath</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//span[id="MainContent_lblArticleName"]</t>
+  </si>
+  <si>
+    <t>//span[@id="MainContent_lblArticleName"]</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>MyVar</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>ArticleName</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>LastResult</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>GetHTML</t>
+  </si>
+  <si>
+    <t>GetInnerText</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>ArticleDescription</t>
+  </si>
+  <si>
+    <t>//span[@id="MainContent_lblArticleDesc"]</t>
+  </si>
+  <si>
+    <t>//span[@id="MainContent_lblArticleBody"]</t>
+  </si>
+  <si>
+    <t>ArticleBody</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>GetFullPath</t>
+  </si>
+  <si>
+    <t>fileName</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>KB790</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>"https://www.inflectra.com/Support/KnowledgeBase/KB790.aspx</t>
+  </si>
+  <si>
+    <t>"https://www.inflectra.com/Support/KnowledgeBase/" + Topic+ ".aspx"</t>
+  </si>
+  <si>
+    <t>"Topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Topics\\" + Topic + ".md" </t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Param</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t># Title</t>
+  </si>
+  <si>
+    <t>Append</t>
+  </si>
+  <si>
+    <t>Fil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## </t>
+  </si>
+  <si>
+    <t>## Description</t>
+  </si>
+  <si>
+    <t>## Body</t>
+  </si>
+  <si>
+    <t>SaveTopic</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>GetInnerHtml</t>
+  </si>
+  <si>
+    <t>obj</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>//a[]</t>
+  </si>
+  <si>
+    <t>//a[contains(@href,"/Support/KnowledgeBase/") and contains(@href,".aspx")]</t>
+  </si>
+  <si>
+    <t>SaveTopicLinks</t>
+  </si>
+  <si>
+    <t>SaveTopicIDs</t>
+  </si>
+  <si>
+    <t>defaultValue</t>
+  </si>
+  <si>
+    <t>ProcessTopics</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>https://www.inflectra.com/Support/KnowledgeBase/spira/List.aspx</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>spira</t>
+  </si>
+  <si>
+    <t>"https://www.inflectra.com/Support/KnowledgeBase/" + Product + "/List.aspx"</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>Spira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Topics" + Product + "\\" + Topic + ".md" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Topics_" + Product + "\\" + Topic + ".md" </t>
+  </si>
+  <si>
+    <t>rapise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -96,7 +290,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="161">
+  <borders count="616">
     <border>
       <left/>
       <right/>
@@ -264,11 +458,466 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="616">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -430,6 +1079,461 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="158" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="159" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="160" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="164" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="166" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="170" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="172" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="191" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="192" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="194" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="195" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="196" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="197" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="198" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="199" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="200" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="201" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="202" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="203" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="204" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="205" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="206" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="207" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="208" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="209" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="210" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="211" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="212" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="213" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="214" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="215" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="216" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="217" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="218" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="219" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="220" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="221" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="222" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="223" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="224" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="225" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="226" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="227" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="228" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="229" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="230" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="231" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="232" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="233" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="234" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="235" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="236" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="237" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="238" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="239" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="240" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="241" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="242" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="243" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="244" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="245" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="246" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="247" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="248" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="249" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="250" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="251" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="252" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="253" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="254" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="255" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="256" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="257" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="258" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="259" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="260" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="261" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="262" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="263" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="264" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="265" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="266" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="267" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="268" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="269" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="270" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="271" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="272" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="273" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="274" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="275" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="276" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="277" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="278" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="279" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="280" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="281" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="282" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="283" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="284" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="285" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="286" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="287" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="288" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="289" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="290" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="291" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="292" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="293" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="294" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="295" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="296" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="297" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="298" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="299" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="300" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="301" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="302" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="303" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="304" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="305" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="306" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="307" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="308" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="309" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="310" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="311" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="312" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="313" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="314" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="315" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="316" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="317" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="318" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="319" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="320" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="321" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="322" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="323" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="324" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="325" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="326" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="327" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="328" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="329" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="330" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="331" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="332" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="333" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="334" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="335" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="336" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="337" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="338" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="339" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="340" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="341" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="342" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="343" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="344" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="345" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="346" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="347" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="348" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="349" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="350" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="351" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="352" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="353" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="354" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="355" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="356" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="357" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="358" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="359" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="360" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="361" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="362" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="363" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="364" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="365" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="366" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="367" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="368" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="369" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="370" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="371" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="372" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="373" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="374" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="375" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="376" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="377" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="378" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="379" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="380" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="381" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="382" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="383" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="384" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="385" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="386" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="387" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="388" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="389" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="390" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="391" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="392" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="393" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="394" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="395" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="396" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="397" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="398" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="399" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="400" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="401" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="402" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="403" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="404" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="405" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="406" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="407" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="408" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="409" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="410" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="411" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="412" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="413" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="414" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="415" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="416" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="417" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="418" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="419" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="420" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="421" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="422" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="423" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="424" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="425" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="426" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="427" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="428" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="429" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="430" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="431" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="432" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="433" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="434" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="435" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="436" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="437" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="438" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="439" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="440" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="441" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="442" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="443" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="444" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="445" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="446" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="447" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="448" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="449" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="450" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="451" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="452" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="453" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="454" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="455" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="456" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="457" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="458" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="459" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="460" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="461" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="462" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="463" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="464" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="465" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="466" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="467" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="468" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="469" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="470" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="471" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="472" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="473" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="474" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="475" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="476" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="477" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="478" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="479" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="480" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="481" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="482" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="483" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="484" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="485" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="486" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="487" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="488" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="489" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="490" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="491" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="492" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="493" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="494" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="495" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="496" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="497" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="498" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="499" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="500" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="501" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="502" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="503" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="504" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="505" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="506" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="507" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="508" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="509" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="510" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="511" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="512" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="513" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="514" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="515" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="516" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="517" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="518" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="519" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="520" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="521" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="522" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="523" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="524" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="525" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="526" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="527" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="528" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="529" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="530" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="531" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="532" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="533" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="534" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="535" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="536" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="537" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="538" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="539" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="540" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="541" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="542" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="543" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="544" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="545" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="546" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="547" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="548" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="549" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="550" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="551" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="552" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="553" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="554" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="555" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="556" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="557" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="558" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="559" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="560" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="561" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="562" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="563" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="564" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="565" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="566" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="567" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="568" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="569" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="570" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="571" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="572" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="573" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="574" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="575" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="576" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="577" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="578" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="579" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="580" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="581" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="582" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="583" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="584" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="585" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="586" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="587" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="588" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="589" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="590" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="591" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="592" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="593" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="594" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="595" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="596" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="597" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="598" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="599" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="600" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="601" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="602" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="603" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="604" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="605" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="606" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="607" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="608" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="609" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="610" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="611" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="612" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="613" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="614" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="615" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,18 +1542,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="true"/>
-    <col min="2" max="2" width="8.453125" customWidth="true"/>
-    <col min="3" max="3" width="12.453125" customWidth="true"/>
-    <col min="4" max="4" width="12.453125" customWidth="true"/>
-    <col min="5" max="5" width="12.453125" customWidth="true"/>
-    <col min="6" max="6" width="12.453125" customWidth="true"/>
-    <col min="7" max="7" width="12.453125" customWidth="true"/>
-    <col min="8" max="8" width="10.453125" customWidth="true"/>
+    <col min="1" max="1" width="5.41015625" customWidth="true"/>
+    <col min="2" max="2" width="8.3125" customWidth="true"/>
+    <col min="3" max="3" width="12.4296875" customWidth="true"/>
+    <col min="4" max="4" width="12.4296875" customWidth="true"/>
+    <col min="5" max="5" width="12.4296875" customWidth="true"/>
+    <col min="6" max="6" width="12.4296875" customWidth="true"/>
+    <col min="7" max="7" width="46.09375" customWidth="true"/>
+    <col min="8" max="8" width="10.40234375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -480,242 +1589,1223 @@
     </row>
     <row r="2">
       <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
+      <c r="D2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="H2" s="16"/>
     </row>
     <row r="3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="611"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="347"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="350"/>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="353"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="40"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="41"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="49"/>
+      <c r="B11" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="24"/>
+      <c r="G11" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="56"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="81"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="89"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="96"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="97"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="104"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="105"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="112"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="121"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="128"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="129"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="136"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="137"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="144"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="145"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="152"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="153"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="160"/>
+    </row>
+  </sheetData>
+  <tableParts/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.41015625" customWidth="true"/>
+    <col min="2" max="2" width="8.3125" customWidth="true"/>
+    <col min="3" max="3" width="12.4296875" customWidth="true"/>
+    <col min="4" max="4" width="12.4296875" customWidth="true"/>
+    <col min="5" max="5" width="12.4296875" customWidth="true"/>
+    <col min="6" max="6" width="12.4296875" customWidth="true"/>
+    <col min="7" max="7" width="38.40234375" customWidth="true"/>
+    <col min="8" max="8" width="10.40234375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="163" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="164" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="165" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="166" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="176"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="331"/>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="354"/>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="332"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="177"/>
+      <c r="B6" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C6" s="179" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="180" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="181" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="182" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="184"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="185"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="192"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="193"/>
+      <c r="B8" s="194" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="195" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="196" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="197" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="198" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="199" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="200"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="321"/>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="201"/>
+      <c r="B10" s="202" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="203"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="205" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="206" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="207" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="208"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="209" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="210" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="211" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="212" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="213" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="214" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="215" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="216"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="217"/>
+      <c r="B12" s="218"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="223"/>
+      <c r="H12" s="224"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="325"/>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="324"/>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="323"/>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="322" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="225"/>
+      <c r="B17" s="226"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="230"/>
+      <c r="G17" s="231"/>
+      <c r="H17" s="232"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="329"/>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="328"/>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="327"/>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="326" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="233"/>
+      <c r="B22" s="234"/>
+      <c r="C22" s="235"/>
+      <c r="D22" s="236"/>
+      <c r="E22" s="237"/>
+      <c r="F22" s="238"/>
+      <c r="G22" s="239"/>
+      <c r="H22" s="240"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="330"/>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="241"/>
+      <c r="B24" s="242" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="243"/>
+      <c r="D24" s="244"/>
+      <c r="E24" s="245" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="246" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="247" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="248"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="249"/>
+      <c r="B25" s="250"/>
+      <c r="C25" s="251"/>
+      <c r="D25" s="252"/>
+      <c r="E25" s="253"/>
+      <c r="F25" s="254"/>
+      <c r="G25" s="255"/>
+      <c r="H25" s="256"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="289"/>
+      <c r="B26" s="290" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="291" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="292" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="293" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="294" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="295" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="296"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="344"/>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="345"/>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="346"/>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="297"/>
+      <c r="B30" s="298"/>
+      <c r="C30" s="299"/>
+      <c r="D30" s="300"/>
+      <c r="E30" s="301"/>
+      <c r="F30" s="302"/>
+      <c r="G30" s="303"/>
+      <c r="H30" s="304"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="305"/>
+      <c r="B31" s="306"/>
+      <c r="C31" s="307"/>
+      <c r="D31" s="308"/>
+      <c r="E31" s="309"/>
+      <c r="F31" s="310"/>
+      <c r="G31" s="311"/>
+      <c r="H31" s="312"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="313"/>
+      <c r="B32" s="314"/>
+      <c r="C32" s="315"/>
+      <c r="D32" s="316"/>
+      <c r="E32" s="317"/>
+      <c r="F32" s="318"/>
+      <c r="G32" s="319"/>
+      <c r="H32" s="320"/>
+    </row>
+  </sheetData>
+  <tableParts/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.41015625" customWidth="true"/>
+    <col min="2" max="2" width="8.3125" customWidth="true"/>
+    <col min="3" max="3" width="12.4296875" customWidth="true"/>
+    <col min="4" max="4" width="12.4296875" customWidth="true"/>
+    <col min="5" max="5" width="12.4296875" customWidth="true"/>
+    <col min="6" max="6" width="12.4296875" customWidth="true"/>
+    <col min="7" max="7" width="38.40234375" customWidth="true"/>
+    <col min="8" max="8" width="10.40234375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="355" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="356" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="357" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="358" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="359" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="360" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="361" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="362" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="30" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="363"/>
+      <c r="B2" s="364" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="365"/>
+      <c r="D2" s="366" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="367" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="368" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G2" s="369" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="32"/>
+      <c r="H2" s="370"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="615"/>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="614"/>
     </row>
     <row r="5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="371"/>
+      <c r="B5" s="372" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="40"/>
+      <c r="C5" s="373" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="374" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="375" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="376" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="377" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="378"/>
     </row>
     <row r="6">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
+      <c r="A6" s="379"/>
+      <c r="B6" s="380"/>
+      <c r="C6" s="381"/>
+      <c r="D6" s="382"/>
+      <c r="E6" s="383"/>
+      <c r="F6" s="384"/>
+      <c r="G6" s="385"/>
+      <c r="H6" s="386"/>
     </row>
     <row r="7">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="56"/>
+      <c r="A7" s="387"/>
+      <c r="B7" s="388"/>
+      <c r="C7" s="389"/>
+      <c r="D7" s="390"/>
+      <c r="E7" s="391"/>
+      <c r="F7" s="392"/>
+      <c r="G7" s="393"/>
+      <c r="H7" s="394"/>
     </row>
     <row r="8">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="64"/>
+      <c r="A8" s="395"/>
+      <c r="B8" s="396"/>
+      <c r="C8" s="397"/>
+      <c r="D8" s="398"/>
+      <c r="E8" s="399"/>
+      <c r="F8" s="400"/>
+      <c r="G8" s="401"/>
+      <c r="H8" s="402"/>
     </row>
     <row r="9">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
+      <c r="A9" s="403"/>
+      <c r="B9" s="404"/>
+      <c r="C9" s="405"/>
+      <c r="D9" s="406"/>
+      <c r="E9" s="407"/>
+      <c r="F9" s="408"/>
+      <c r="G9" s="409"/>
+      <c r="H9" s="410"/>
     </row>
     <row r="10">
-      <c r="A10" s="73"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
+      <c r="A10" s="411"/>
+      <c r="B10" s="412"/>
+      <c r="C10" s="413"/>
+      <c r="D10" s="414"/>
+      <c r="E10" s="415"/>
+      <c r="F10" s="416"/>
+      <c r="G10" s="417"/>
+      <c r="H10" s="418"/>
     </row>
     <row r="11">
-      <c r="A11" s="81"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="88"/>
+      <c r="A11" s="419"/>
+      <c r="B11" s="420"/>
+      <c r="C11" s="421"/>
+      <c r="D11" s="422"/>
+      <c r="E11" s="423"/>
+      <c r="F11" s="424"/>
+      <c r="G11" s="425"/>
+      <c r="H11" s="426"/>
     </row>
     <row r="12">
-      <c r="A12" s="89"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="96"/>
+      <c r="A12" s="427"/>
+      <c r="B12" s="428"/>
+      <c r="C12" s="429"/>
+      <c r="D12" s="430"/>
+      <c r="E12" s="431"/>
+      <c r="F12" s="432"/>
+      <c r="G12" s="433"/>
+      <c r="H12" s="434"/>
     </row>
     <row r="13">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
+      <c r="A13" s="435"/>
+      <c r="B13" s="436"/>
+      <c r="C13" s="437"/>
+      <c r="D13" s="438"/>
+      <c r="E13" s="439"/>
+      <c r="F13" s="440"/>
+      <c r="G13" s="441"/>
+      <c r="H13" s="442"/>
     </row>
     <row r="14">
-      <c r="A14" s="105"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="112"/>
+      <c r="A14" s="443"/>
+      <c r="B14" s="444"/>
+      <c r="C14" s="445"/>
+      <c r="D14" s="446"/>
+      <c r="E14" s="447"/>
+      <c r="F14" s="448"/>
+      <c r="G14" s="449"/>
+      <c r="H14" s="450"/>
     </row>
     <row r="15">
-      <c r="A15" s="113"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="120"/>
+      <c r="A15" s="451"/>
+      <c r="B15" s="452"/>
+      <c r="C15" s="453"/>
+      <c r="D15" s="454"/>
+      <c r="E15" s="455"/>
+      <c r="F15" s="456"/>
+      <c r="G15" s="457"/>
+      <c r="H15" s="458"/>
     </row>
     <row r="16">
-      <c r="A16" s="121"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="128"/>
+      <c r="A16" s="459"/>
+      <c r="B16" s="460"/>
+      <c r="C16" s="461"/>
+      <c r="D16" s="462"/>
+      <c r="E16" s="463"/>
+      <c r="F16" s="464"/>
+      <c r="G16" s="465"/>
+      <c r="H16" s="466"/>
     </row>
     <row r="17">
-      <c r="A17" s="129"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="136"/>
+      <c r="A17" s="467"/>
+      <c r="B17" s="468"/>
+      <c r="C17" s="469"/>
+      <c r="D17" s="470"/>
+      <c r="E17" s="471"/>
+      <c r="F17" s="472"/>
+      <c r="G17" s="473"/>
+      <c r="H17" s="474"/>
     </row>
     <row r="18">
-      <c r="A18" s="137"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="144"/>
+      <c r="A18" s="475"/>
+      <c r="B18" s="476"/>
+      <c r="C18" s="477"/>
+      <c r="D18" s="478"/>
+      <c r="E18" s="479"/>
+      <c r="F18" s="480"/>
+      <c r="G18" s="481"/>
+      <c r="H18" s="482"/>
     </row>
     <row r="19">
-      <c r="A19" s="145"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="152"/>
+      <c r="A19" s="483"/>
+      <c r="B19" s="484"/>
+      <c r="C19" s="485"/>
+      <c r="D19" s="486"/>
+      <c r="E19" s="487"/>
+      <c r="F19" s="488"/>
+      <c r="G19" s="489"/>
+      <c r="H19" s="490"/>
     </row>
     <row r="20">
-      <c r="A20" s="153"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="160"/>
+      <c r="A20" s="491"/>
+      <c r="B20" s="492"/>
+      <c r="C20" s="493"/>
+      <c r="D20" s="494"/>
+      <c r="E20" s="495"/>
+      <c r="F20" s="496"/>
+      <c r="G20" s="497"/>
+      <c r="H20" s="498"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="499"/>
+      <c r="B21" s="500"/>
+      <c r="C21" s="501"/>
+      <c r="D21" s="502"/>
+      <c r="E21" s="503"/>
+      <c r="F21" s="504"/>
+      <c r="G21" s="505"/>
+      <c r="H21" s="506"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="507"/>
+      <c r="B22" s="508"/>
+      <c r="C22" s="509"/>
+      <c r="D22" s="510"/>
+      <c r="E22" s="511"/>
+      <c r="F22" s="512"/>
+      <c r="G22" s="513"/>
+      <c r="H22" s="514"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="515"/>
+      <c r="B23" s="516"/>
+      <c r="C23" s="517"/>
+      <c r="D23" s="518"/>
+      <c r="E23" s="519"/>
+      <c r="F23" s="520"/>
+      <c r="G23" s="521"/>
+      <c r="H23" s="522"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="523"/>
+      <c r="B24" s="524"/>
+      <c r="C24" s="525"/>
+      <c r="D24" s="526"/>
+      <c r="E24" s="527"/>
+      <c r="F24" s="528"/>
+      <c r="G24" s="529"/>
+      <c r="H24" s="530"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="531"/>
+      <c r="B25" s="532"/>
+      <c r="C25" s="533"/>
+      <c r="D25" s="534"/>
+      <c r="E25" s="535"/>
+      <c r="F25" s="536"/>
+      <c r="G25" s="537"/>
+      <c r="H25" s="538"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="539"/>
+      <c r="B26" s="540"/>
+      <c r="C26" s="541"/>
+      <c r="D26" s="542"/>
+      <c r="E26" s="543"/>
+      <c r="F26" s="544"/>
+      <c r="G26" s="545"/>
+      <c r="H26" s="546"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="547"/>
+      <c r="B27" s="548"/>
+      <c r="C27" s="549"/>
+      <c r="D27" s="550"/>
+      <c r="E27" s="551"/>
+      <c r="F27" s="552"/>
+      <c r="G27" s="553"/>
+      <c r="H27" s="554"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="555"/>
+      <c r="B28" s="556"/>
+      <c r="C28" s="557"/>
+      <c r="D28" s="558"/>
+      <c r="E28" s="559"/>
+      <c r="F28" s="560"/>
+      <c r="G28" s="561"/>
+      <c r="H28" s="562"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="563"/>
+      <c r="B29" s="564"/>
+      <c r="C29" s="565"/>
+      <c r="D29" s="566"/>
+      <c r="E29" s="567"/>
+      <c r="F29" s="568"/>
+      <c r="G29" s="569"/>
+      <c r="H29" s="570"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="571"/>
+      <c r="B30" s="572"/>
+      <c r="C30" s="573"/>
+      <c r="D30" s="574"/>
+      <c r="E30" s="575"/>
+      <c r="F30" s="576"/>
+      <c r="G30" s="577"/>
+      <c r="H30" s="578"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="579"/>
+      <c r="B31" s="580"/>
+      <c r="C31" s="581"/>
+      <c r="D31" s="582"/>
+      <c r="E31" s="583"/>
+      <c r="F31" s="584"/>
+      <c r="G31" s="585"/>
+      <c r="H31" s="586"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="587"/>
+      <c r="B32" s="588"/>
+      <c r="C32" s="589"/>
+      <c r="D32" s="590"/>
+      <c r="E32" s="591"/>
+      <c r="F32" s="592"/>
+      <c r="G32" s="593"/>
+      <c r="H32" s="594"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="595"/>
+      <c r="B33" s="596"/>
+      <c r="C33" s="597"/>
+      <c r="D33" s="598"/>
+      <c r="E33" s="599"/>
+      <c r="F33" s="600"/>
+      <c r="G33" s="601"/>
+      <c r="H33" s="602"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="603"/>
+      <c r="B34" s="604"/>
+      <c r="C34" s="605"/>
+      <c r="D34" s="606"/>
+      <c r="E34" s="607"/>
+      <c r="F34" s="608"/>
+      <c r="G34" s="609"/>
+      <c r="H34" s="610"/>
     </row>
   </sheetData>
+  <tableParts/>
 </worksheet>
 </file>
--- a/tools/KnowledgeBase2RapiseDoc/Main.rvl.xlsx
+++ b/tools/KnowledgeBase2RapiseDoc/Main.rvl.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="442" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="443" uniqueCount="85">
   <si>
     <t>Flow</t>
   </si>
@@ -1603,7 +1603,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H2" s="16"/>
     </row>
